--- a/数据字典/我的数据库字典.xlsx
+++ b/数据字典/我的数据库字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="703"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="703" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="所有数据" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5535" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5533" uniqueCount="1069">
   <si>
     <t>权限表dzw_privilege</t>
   </si>
@@ -3631,9 +3631,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
@@ -3736,32 +3736,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3769,28 +3745,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3810,32 +3764,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3843,9 +3773,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3865,6 +3811,44 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3874,7 +3858,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3896,7 +3896,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3908,19 +3956,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3932,19 +3974,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3956,7 +3992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3968,61 +4004,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4040,25 +4028,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4070,13 +4052,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4101,6 +4101,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4147,6 +4162,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4161,32 +4187,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4195,10 +4195,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4207,133 +4207,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4784,7 +4784,7 @@
   <sheetPr/>
   <dimension ref="A1:K896"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A696" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A715" workbookViewId="0">
       <selection activeCell="G712" sqref="G712"/>
     </sheetView>
   </sheetViews>
@@ -17908,11 +17908,15 @@
   <sheetPr/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="26.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="20.4" spans="1:8">
       <c r="A1" s="38" t="s">
@@ -18004,9 +18008,7 @@
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
-      <c r="F5" s="39" t="s">
-        <v>10</v>
-      </c>
+      <c r="F5" s="39"/>
       <c r="G5" s="39" t="s">
         <v>16</v>
       </c>
@@ -18044,9 +18046,7 @@
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="39" t="s">
-        <v>10</v>
-      </c>
+      <c r="F7" s="39"/>
       <c r="G7" s="39" t="s">
         <v>20</v>
       </c>
